--- a/test_workbook/work3_test/work3-2-22/エビデンス/BOPエラー/BOPLocationCDError.xlsx
+++ b/test_workbook/work3_test/work3-2-22/エビデンス/BOPエラー/BOPLocationCDError.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h29458\Desktop\共通品目詳細マスタ作成ツール\seizouhinmokushousai\test_workbook\work3_test\work3-2-20\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h29458\Desktop\共通品目詳細マスタ作成ツール\seizouhinmokushousai\test_workbook\work3_test\work3-2-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA0AAA4E-9C4E-419F-B46A-AEE43E253071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B17FEEC8-47A0-4E8E-90EC-9F1FE34EF3E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{320A971B-A699-4442-AEA9-9F6FB06077EE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5A9E6122-5369-4807-B663-2906292A8AB7}"/>
   </bookViews>
   <sheets>
     <sheet name="BOPLocationCDError" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>ファイル名</t>
   </si>
@@ -50,16 +50,25 @@
     <t>エラー内容</t>
   </si>
   <si>
-    <t>製造品目詳細一覧_work.xlsx</t>
+    <t>Work_Backup_1</t>
   </si>
   <si>
     <t>D</t>
   </si>
   <si>
-    <t>P1003（部品C）に複数種類の製造場所CDが存在します。（この行：LOC3、他行：LOC4）</t>
-  </si>
-  <si>
-    <t>P1003（部品C）に複数種類の製造場所CDが存在します。（この行：LOC4、他行：LOC3）</t>
+    <t>品目CD: P3001に複数種類の製造場所CDが存在します。（この行：LOC20、他行：LOC21）</t>
+  </si>
+  <si>
+    <t>品目CD: P3001に複数種類の製造場所CDが存在します。（この行：LOC21、他行：LOC20）</t>
+  </si>
+  <si>
+    <t>品目CD: P3002に複数種類の製造場所CDが存在します。（この行：LOC22、他行：LOC23,LOC24）</t>
+  </si>
+  <si>
+    <t>品目CD: P3002に複数種類の製造場所CDが存在します。（この行：LOC23、他行：LOC22,LOC24）</t>
+  </si>
+  <si>
+    <t>品目CD: P3002に複数種類の製造場所CDが存在します。（この行：LOC24、他行：LOC22,LOC23）</t>
   </si>
 </sst>
 </file>
@@ -442,16 +451,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6AA734E-0FD7-4847-B2A1-54D93B29A071}">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93D9BBDB-0957-41FF-A9BD-1AE5A98CE69E}">
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="85.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="92.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
@@ -473,7 +482,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -487,13 +496,55 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
